--- a/EV Literature Review Papers.xlsx
+++ b/EV Literature Review Papers.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2025\Conjoint_Survey_25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2821BC18-90CB-40A9-B5EC-4B06203F60CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7556DC45-E03E-40B7-9C1A-3BB232495512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EV adoption (&gt;=2015)" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Tags</t>
   </si>
   <si>
@@ -42,23 +39,41 @@
     <t>Opinion_Zain</t>
   </si>
   <si>
-    <t>Electric vehicles revisited: a review of factors that affect adoption</t>
-  </si>
-  <si>
-    <t>https://www.tandfonline.com/doi/abs/10.1080/01441647.2016.1217282?casa_token=-iG6MLCgfsYAAAAA:E-m3aM5NUMy-MbkD_cKrEaI2IXbFDUhsn20mFSoOQSpHH-DwaDCdL8vElB5xyhAd7dtDOz9OM7oT</t>
-  </si>
-  <si>
-    <t>Electric vehicle adoption: An analysis of best practice and pitfalls for policy making from experiences of Europe and the US</t>
-  </si>
-  <si>
-    <t>https://compass.onlinelibrary.wiley.com/doi/abs/10.1111/gec3.12358?casa_token=TqBII1qZCWwAAAAA:x7Za1tH0HXQJXHKcN89h1trmVayxnSdu3MMmvSGS0hOj2MCEupPaGRpgFpi7LGpmbjrcCf3ror4YuA</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Comprehensive Literature Review</t>
+  </si>
+  <si>
+    <t>Adoption of electric vehicle: A literature review and prospects for sustainability</t>
+  </si>
+  <si>
+    <t>[HTML] Advances in consumer electric vehicle adoption research: A review and research agenda</t>
+  </si>
+  <si>
+    <t>The effect of policy incentives on electric vehicle adoption</t>
+  </si>
+  <si>
+    <t>Factors influencing early battery electric vehicle adoption in Ireland</t>
+  </si>
+  <si>
+    <t>Predictors of electric vehicle adoption: An analysis of potential electric vehicle drivers in Austria</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Literature Review</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,12 +83,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -122,21 +131,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -418,80 +424,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9982BDB2-5ED4-4808-955B-948220CDD481}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="98.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2015</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.tandfonline.com/doi/abs/10.1080/01441647.2016.1217282?casa_token=-iG6MLCgfsYAAAAA:E-m3aM5NUMy-MbkD_cKrEaI2IXbFDUhsn20mFSoOQSpHH-DwaDCdL8vElB5xyhAd7dtDOz9OM7oT" xr:uid="{7DA0FA40-6BE9-4C5B-AD68-25FEDC6D0110}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://compass.onlinelibrary.wiley.com/doi/abs/10.1111/gec3.12358?casa_token=TqBII1qZCWwAAAAA:x7Za1tH0HXQJXHKcN89h1trmVayxnSdu3MMmvSGS0hOj2MCEupPaGRpgFpi7LGpmbjrcCf3ror4YuA" xr:uid="{57AA880A-BA17-4F1C-86E1-C3BA0AE799B7}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.sciencedirect.com/science/article/pii/S095965261934781X" xr:uid="{8370028F-DE56-49D2-8AE6-3076B3409A6D}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.sciencedirect.com/science/article/pii/S1361920914001515" xr:uid="{341654E3-F978-4276-8CF7-D54988FF4049}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.sciencedirect.com/science/article/pii/S0301421516301550" xr:uid="{9E2C8732-76EA-45F7-8142-4765CEF40A87}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://www.sciencedirect.com/science/article/pii/S1364032119307129" xr:uid="{BAA2EFA4-F1A3-400C-A49C-063EE84340AD}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.sciencedirect.com/science/article/pii/S0301421518305044" xr:uid="{1EBA86F9-F5C8-485E-88E2-6E730E4E1943}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
